--- a/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
+++ b/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.51</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.51</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.27</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -678,25 +748,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>85.03</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.84</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
+++ b/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
+++ b/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
+++ b/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
+++ b/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,17 +1792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1811,14 +1832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.62</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1827,14 +1870,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.04</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1843,14 +1908,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.35</v>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1859,13 +1946,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
+++ b/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2103,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2114,17 +2115,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2155,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.94</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2150,14 +2193,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.62</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2166,14 +2231,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.04</v>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2182,14 +2269,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.35</v>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2198,13 +2307,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
+++ b/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,17 +2780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2799,14 +2820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.81</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2815,14 +2858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.94</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2831,14 +2896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.62</v>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2847,14 +2934,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.04</v>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2863,14 +2972,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.35</v>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2879,13 +3010,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
+++ b/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.92</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>3.81</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>1.94</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.35</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -600,6 +617,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1737,7 +2074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2052,480 +2389,6 @@
       </c>
       <c r="H8" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4260</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.56</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2512</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>217024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商安盈债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2373</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1907</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0989</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001364</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成景润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0896</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0790</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003373</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成景禄灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>28.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002383</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成趋势回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003147</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成动态量化配置策略混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0594</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003374</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成景禄灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>28.93</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0497</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2590,36 +2453,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2562</t>
+          <t>0.4260</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2628,36 +2491,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>79.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1970</t>
+          <t>0.2512</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2666,36 +2529,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003373</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成景禄灵活配置混合A</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>26.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.01</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1020</t>
+          <t>0.2373</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2704,36 +2567,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002383</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成趋势回报灵活配置混合</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1015</t>
+          <t>0.1907</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2742,32 +2605,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001364</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成景润灵活配置混合</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27.22</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1015</t>
+          <t>0.0989</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2780,36 +2643,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>001364</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>大成景润灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>28.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0732</t>
+          <t>0.0896</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2818,36 +2681,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003147</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成动态量化配置策略混合</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28.85</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0679</t>
+          <t>0.0790</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2856,32 +2719,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003374</t>
+          <t>003373</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成景禄灵活配置混合C</t>
+          <t>大成景禄灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25.01</t>
+          <t>28.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.0713</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2894,36 +2757,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>002383</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>大成趋势回报灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>29.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0394</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2932,36 +2795,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>003147</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>大成动态量化配置策略混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>29.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0359</t>
+          <t>0.0594</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2970,36 +2833,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007281</t>
+          <t>003374</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉合消费升级混合</t>
+          <t>大成景禄灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>28.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0497</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3008,6 +2871,480 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3253,7 +3590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
+++ b/数据整理/stocks/A股/上证主板/600332-白云山.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.58</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.92</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>3.81</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>1.94</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.35</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -616,7 +633,575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>560080</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药 ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3988</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安盈债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3890</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -936,7 +1521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1410,7 +1995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2074,7 +2659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2389,480 +2974,6 @@
       </c>
       <c r="H8" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4260</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.56</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2512</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>217024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商安盈债券</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2373</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1907</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0989</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001364</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成景润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0896</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.70</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0790</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003373</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成景禄灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>28.93</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002383</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成趋势回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003147</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成动态量化配置策略混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0594</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003374</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成景禄灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>28.93</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0497</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2927,36 +3038,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2562</t>
+          <t>0.4260</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2965,36 +3076,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>79.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1970</t>
+          <t>0.2512</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3003,36 +3114,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003373</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成景禄灵活配置混合A</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>26.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.01</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1020</t>
+          <t>0.2373</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3041,36 +3152,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002383</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成趋势回报灵活配置混合</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1015</t>
+          <t>0.1907</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3079,32 +3190,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001364</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成景润灵活配置混合</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27.22</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1015</t>
+          <t>0.0989</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3117,36 +3228,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>001364</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>大成景润灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>28.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0732</t>
+          <t>0.0896</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3155,36 +3266,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003147</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成动态量化配置策略混合</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28.85</t>
+          <t>85.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0679</t>
+          <t>0.0790</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -3193,32 +3304,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003374</t>
+          <t>003373</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成景禄灵活配置混合C</t>
+          <t>大成景禄灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25.01</t>
+          <t>28.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.0713</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3231,36 +3342,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>002383</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>大成趋势回报灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>29.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0394</t>
+          <t>0.0709</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3269,36 +3380,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>003147</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>大成动态量化配置策略混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.28</t>
+          <t>29.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0359</t>
+          <t>0.0594</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -3307,36 +3418,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007281</t>
+          <t>003374</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉合消费升级混合</t>
+          <t>大成景禄灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>28.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0497</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3345,6 +3456,480 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3588,136 +4173,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1060</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>